--- a/outputs/c/_blackPepper_both.xlsx
+++ b/outputs/c/_blackPepper_both.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="122">
   <si>
     <t>participant</t>
   </si>
@@ -48,9 +48,6 @@
     <t>place_2</t>
   </si>
   <si>
-    <t>activity</t>
-  </si>
-  <si>
     <t>activity 2</t>
   </si>
   <si>
@@ -381,7 +378,13 @@
     <t>mix of utensil and consumer good</t>
   </si>
   <si>
-    <t>uniq</t>
+    <t>activity_1</t>
+  </si>
+  <si>
+    <t>type_1</t>
+  </si>
+  <si>
+    <t>type_2</t>
   </si>
 </sst>
 </file>
@@ -709,7 +712,7 @@
   <dimension ref="A1:AB46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O2" sqref="O2"/>
+      <selection activeCell="O28" sqref="A25:O28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -748,19 +751,19 @@
         <v>8</v>
       </c>
       <c r="K1" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="1" t="s">
-        <v>10</v>
-      </c>
       <c r="M1" s="1" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="P1" s="1"/>
       <c r="Q1" s="2" t="s">
@@ -770,7 +773,7 @@
         <v>1</v>
       </c>
       <c r="S1" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="T1" s="2" t="s">
         <v>2</v>
@@ -788,10 +791,10 @@
         <v>6</v>
       </c>
       <c r="Y1" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="Z1" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="2" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -802,7 +805,7 @@
         <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D2" s="1">
         <v>229</v>
@@ -814,22 +817,22 @@
         <v>1844</v>
       </c>
       <c r="G2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="K2" s="1" t="s">
-        <v>16</v>
-      </c>
       <c r="M2" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="N2" s="2">
         <v>0</v>
@@ -840,7 +843,7 @@
         <v>4</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="S2" s="2">
         <v>0</v>
@@ -855,13 +858,13 @@
         <v>1818</v>
       </c>
       <c r="W2" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="X2" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="X2" s="2" t="s">
-        <v>72</v>
-      </c>
       <c r="Y2" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="3" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -872,7 +875,7 @@
         <v>5</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D3" s="1">
         <v>53</v>
@@ -884,25 +887,25 @@
         <v>1066</v>
       </c>
       <c r="G3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="I3" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="J3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="L3" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="J3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="M3" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="N3" s="2">
         <v>0</v>
@@ -913,7 +916,7 @@
         <v>5</v>
       </c>
       <c r="R3" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="S3" s="2">
         <v>0</v>
@@ -928,16 +931,16 @@
         <v>1066</v>
       </c>
       <c r="W3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="X3" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="X3" s="2" t="s">
-        <v>18</v>
-      </c>
       <c r="Y3" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="AA3" s="2" t="s">
         <v>116</v>
-      </c>
-      <c r="AA3" s="2" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="4" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -948,7 +951,7 @@
         <v>8</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D4" s="1">
         <v>66</v>
@@ -960,22 +963,22 @@
         <v>578</v>
       </c>
       <c r="G4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H4" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="H4" s="1" t="s">
-        <v>22</v>
-      </c>
       <c r="I4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="J4" s="1" t="s">
+      <c r="K4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="K4" s="1" t="s">
-        <v>16</v>
-      </c>
       <c r="M4" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="N4" s="2">
         <v>0</v>
@@ -986,7 +989,7 @@
         <v>8</v>
       </c>
       <c r="R4" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="S4" s="2">
         <v>0</v>
@@ -1001,13 +1004,13 @@
         <v>578</v>
       </c>
       <c r="W4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="X4" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="X4" s="2" t="s">
-        <v>22</v>
-      </c>
       <c r="Y4" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="5" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1018,7 +1021,7 @@
         <v>9</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D5" s="1">
         <v>275</v>
@@ -1030,19 +1033,19 @@
         <v>1888</v>
       </c>
       <c r="G5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H5" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="I5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K5" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="I5" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>25</v>
-      </c>
       <c r="M5" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="N5" s="2">
         <v>0</v>
@@ -1053,7 +1056,7 @@
         <v>9</v>
       </c>
       <c r="R5" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="S5" s="2">
         <v>1</v>
@@ -1068,13 +1071,13 @@
         <v>1460</v>
       </c>
       <c r="W5" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="X5" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="X5" s="2" t="s">
-        <v>76</v>
-      </c>
       <c r="Y5" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="6" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1085,7 +1088,7 @@
         <v>10</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D6" s="1">
         <v>111</v>
@@ -1097,22 +1100,22 @@
         <v>922</v>
       </c>
       <c r="G6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H6" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="H6" s="1" t="s">
-        <v>27</v>
-      </c>
       <c r="I6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J6" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="J6" s="1" t="s">
+      <c r="K6" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="K6" s="1" t="s">
-        <v>16</v>
-      </c>
       <c r="M6" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="N6" s="2">
         <v>0</v>
@@ -1123,7 +1126,7 @@
         <v>10</v>
       </c>
       <c r="R6" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="S6" s="2">
         <v>0</v>
@@ -1138,16 +1141,16 @@
         <v>922</v>
       </c>
       <c r="W6" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="X6" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="X6" s="2" t="s">
-        <v>27</v>
-      </c>
       <c r="Y6" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="Z6" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="7" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1158,7 +1161,7 @@
         <v>11</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D7" s="1">
         <v>190</v>
@@ -1170,22 +1173,22 @@
         <v>2040</v>
       </c>
       <c r="G7" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H7" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="H7" s="1" t="s">
-        <v>29</v>
-      </c>
       <c r="I7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J7" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="J7" s="1" t="s">
+      <c r="K7" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="K7" s="1" t="s">
-        <v>16</v>
-      </c>
       <c r="M7" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="N7" s="2">
         <v>0</v>
@@ -1196,7 +1199,7 @@
         <v>11</v>
       </c>
       <c r="R7" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="S7" s="2">
         <v>0</v>
@@ -1211,13 +1214,13 @@
         <v>2040</v>
       </c>
       <c r="W7" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="X7" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="X7" s="2" t="s">
-        <v>29</v>
-      </c>
       <c r="Y7" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="8" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1228,7 +1231,7 @@
         <v>12</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D8" s="1">
         <v>219</v>
@@ -1240,22 +1243,22 @@
         <v>2486</v>
       </c>
       <c r="G8" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H8" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="H8" s="1" t="s">
+      <c r="I8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J8" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="I8" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J8" s="1" t="s">
+      <c r="K8" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="K8" s="1" t="s">
-        <v>33</v>
-      </c>
       <c r="M8" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="N8" s="2">
         <v>0</v>
@@ -1266,7 +1269,7 @@
         <v>12</v>
       </c>
       <c r="R8" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="S8" s="2">
         <v>0</v>
@@ -1281,13 +1284,13 @@
         <v>2486</v>
       </c>
       <c r="W8" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="X8" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="X8" s="2" t="s">
-        <v>31</v>
-      </c>
       <c r="Y8" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="9" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1298,7 +1301,7 @@
         <v>13</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D9" s="1">
         <v>188</v>
@@ -1310,22 +1313,22 @@
         <v>1258</v>
       </c>
       <c r="G9" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H9" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="H9" s="1" t="s">
-        <v>35</v>
-      </c>
       <c r="I9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J9" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="J9" s="1" t="s">
+      <c r="K9" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="K9" s="1" t="s">
-        <v>16</v>
-      </c>
       <c r="M9" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="N9" s="2">
         <v>0</v>
@@ -1336,10 +1339,10 @@
         <v>13</v>
       </c>
       <c r="R9" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="S9" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="T9" s="2">
         <v>188</v>
@@ -1351,13 +1354,13 @@
         <v>1258</v>
       </c>
       <c r="W9" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="X9" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="X9" s="2" t="s">
-        <v>35</v>
-      </c>
       <c r="Y9" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="10" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1368,7 +1371,7 @@
         <v>17</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D10" s="1">
         <v>516</v>
@@ -1380,22 +1383,22 @@
         <v>4492</v>
       </c>
       <c r="G10" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H10" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="H10" s="1" t="s">
-        <v>37</v>
-      </c>
       <c r="I10" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J10" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="J10" s="1" t="s">
+      <c r="K10" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="K10" s="1" t="s">
-        <v>16</v>
-      </c>
       <c r="M10" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="N10" s="2">
         <v>0</v>
@@ -1406,7 +1409,7 @@
         <v>17</v>
       </c>
       <c r="R10" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="S10" s="2">
         <v>0</v>
@@ -1421,16 +1424,16 @@
         <v>3846</v>
       </c>
       <c r="W10" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="X10" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="X10" s="2" t="s">
-        <v>86</v>
-      </c>
       <c r="Y10" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="Z10" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="11" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1441,7 +1444,7 @@
         <v>18</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D11" s="1">
         <v>312</v>
@@ -1453,19 +1456,19 @@
         <v>1534</v>
       </c>
       <c r="G11" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H11" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="H11" s="1" t="s">
-        <v>39</v>
-      </c>
       <c r="I11" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="N11" s="2">
         <v>0</v>
@@ -1476,7 +1479,7 @@
         <v>18</v>
       </c>
       <c r="R11" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="S11" s="2">
         <v>0</v>
@@ -1491,13 +1494,13 @@
         <v>76</v>
       </c>
       <c r="W11" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="X11" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="X11" s="2" t="s">
-        <v>88</v>
-      </c>
       <c r="Y11" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="12" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1508,7 +1511,7 @@
         <v>20</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D12" s="1">
         <v>117</v>
@@ -1520,22 +1523,22 @@
         <v>824</v>
       </c>
       <c r="G12" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H12" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="H12" s="1" t="s">
-        <v>41</v>
-      </c>
       <c r="I12" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M12" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="N12" s="2">
         <v>0</v>
@@ -1546,7 +1549,7 @@
         <v>20</v>
       </c>
       <c r="R12" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="S12" s="2">
         <v>0</v>
@@ -1561,13 +1564,13 @@
         <v>824</v>
       </c>
       <c r="W12" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="X12" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="X12" s="2" t="s">
-        <v>41</v>
-      </c>
       <c r="Y12" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="13" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1578,7 +1581,7 @@
         <v>1</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D13" s="1">
         <v>138</v>
@@ -1590,19 +1593,19 @@
         <v>916</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I13" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K13" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="K13" s="1" t="s">
-        <v>16</v>
-      </c>
       <c r="M13" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="N13" s="2">
         <v>0</v>
@@ -1613,7 +1616,7 @@
         <v>1</v>
       </c>
       <c r="R13" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="S13" s="2">
         <v>0</v>
@@ -1628,13 +1631,13 @@
         <v>916</v>
       </c>
       <c r="W13" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="X13" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="Y13" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="14" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1645,7 +1648,7 @@
         <v>3</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D14" s="1">
         <v>72</v>
@@ -1657,22 +1660,22 @@
         <v>1174</v>
       </c>
       <c r="G14" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H14" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="H14" s="1" t="s">
-        <v>45</v>
-      </c>
       <c r="I14" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J14" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="J14" s="1" t="s">
+      <c r="K14" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="K14" s="1" t="s">
-        <v>16</v>
-      </c>
       <c r="M14" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="N14" s="2">
         <v>0</v>
@@ -1683,7 +1686,7 @@
         <v>3</v>
       </c>
       <c r="R14" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="S14" s="2">
         <v>0</v>
@@ -1698,13 +1701,13 @@
         <v>1174</v>
       </c>
       <c r="W14" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="X14" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="X14" s="2" t="s">
-        <v>45</v>
-      </c>
       <c r="Y14" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="15" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1715,7 +1718,7 @@
         <v>4</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D15" s="1">
         <v>364</v>
@@ -1727,19 +1730,19 @@
         <v>3086</v>
       </c>
       <c r="G15" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H15" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="H15" s="1" t="s">
-        <v>47</v>
-      </c>
       <c r="I15" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K15" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="K15" s="1" t="s">
-        <v>16</v>
-      </c>
       <c r="M15" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="N15" s="2">
         <v>0</v>
@@ -1750,10 +1753,10 @@
         <v>4</v>
       </c>
       <c r="R15" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="S15" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="T15" s="2">
         <v>364</v>
@@ -1765,13 +1768,13 @@
         <v>3086</v>
       </c>
       <c r="W15" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="X15" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="X15" s="2" t="s">
-        <v>47</v>
-      </c>
       <c r="Y15" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="16" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1782,7 +1785,7 @@
         <v>6</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D16" s="1">
         <v>257</v>
@@ -1794,19 +1797,19 @@
         <v>3860</v>
       </c>
       <c r="G16" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="H16" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="H16" s="1" t="s">
-        <v>49</v>
-      </c>
       <c r="I16" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M16" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="N16" s="2">
         <v>0</v>
@@ -1817,7 +1820,7 @@
         <v>6</v>
       </c>
       <c r="R16" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="S16" s="2">
         <v>0</v>
@@ -1832,13 +1835,13 @@
         <v>1998</v>
       </c>
       <c r="W16" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="X16" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="X16" s="2" t="s">
-        <v>100</v>
-      </c>
       <c r="Y16" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="17" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1849,7 +1852,7 @@
         <v>8</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D17" s="1">
         <v>141</v>
@@ -1861,19 +1864,19 @@
         <v>1430</v>
       </c>
       <c r="G17" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="H17" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="H17" s="1" t="s">
+      <c r="I17" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K17" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="I17" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="K17" s="1" t="s">
-        <v>52</v>
-      </c>
       <c r="M17" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="N17" s="2">
         <v>0</v>
@@ -1884,10 +1887,10 @@
         <v>8</v>
       </c>
       <c r="R17" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="S17" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="T17" s="2">
         <v>141</v>
@@ -1899,16 +1902,16 @@
         <v>1430</v>
       </c>
       <c r="W17" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="X17" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="X17" s="2" t="s">
-        <v>51</v>
-      </c>
       <c r="Y17" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="Z17" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="18" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1919,7 +1922,7 @@
         <v>9</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D18" s="1">
         <v>134</v>
@@ -1931,19 +1934,19 @@
         <v>898</v>
       </c>
       <c r="G18" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="H18" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="H18" s="1" t="s">
-        <v>54</v>
-      </c>
       <c r="I18" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M18" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="N18" s="2">
         <v>0</v>
@@ -1954,7 +1957,7 @@
         <v>9</v>
       </c>
       <c r="R18" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="S18" s="2">
         <v>0</v>
@@ -1969,13 +1972,13 @@
         <v>898</v>
       </c>
       <c r="W18" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="X18" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="X18" s="2" t="s">
-        <v>54</v>
-      </c>
       <c r="Y18" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="19" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1986,7 +1989,7 @@
         <v>10</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D19" s="1">
         <v>786</v>
@@ -1998,22 +2001,22 @@
         <v>6366</v>
       </c>
       <c r="G19" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="H19" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="H19" s="1" t="s">
-        <v>56</v>
-      </c>
       <c r="I19" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J19" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="J19" s="1" t="s">
+      <c r="K19" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="K19" s="1" t="s">
-        <v>16</v>
-      </c>
       <c r="M19" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="N19" s="2">
         <v>0</v>
@@ -2024,7 +2027,7 @@
         <v>10</v>
       </c>
       <c r="R19" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="S19" s="2">
         <v>0</v>
@@ -2039,19 +2042,19 @@
         <v>1110</v>
       </c>
       <c r="W19" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="X19" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="X19" s="2" t="s">
-        <v>104</v>
-      </c>
       <c r="Y19" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="Z19" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="AA19" s="2" t="s">
         <v>118</v>
-      </c>
-      <c r="Z19" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="AA19" s="2" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="20" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2062,7 +2065,7 @@
         <v>13</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D20" s="1">
         <v>233</v>
@@ -2074,22 +2077,22 @@
         <v>954</v>
       </c>
       <c r="G20" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="H20" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="H20" s="1" t="s">
+      <c r="I20" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K20" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="I20" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="K20" s="1" t="s">
+      <c r="L20" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="L20" s="1" t="s">
-        <v>60</v>
-      </c>
       <c r="M20" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="N20" s="2">
         <v>0</v>
@@ -2100,10 +2103,10 @@
         <v>13</v>
       </c>
       <c r="R20" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="S20" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="T20" s="2">
         <v>151</v>
@@ -2115,13 +2118,13 @@
         <v>694</v>
       </c>
       <c r="W20" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="X20" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="X20" s="2" t="s">
-        <v>108</v>
-      </c>
       <c r="Y20" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="21" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2132,7 +2135,7 @@
         <v>14</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D21" s="1">
         <v>355</v>
@@ -2144,22 +2147,22 @@
         <v>2958</v>
       </c>
       <c r="G21" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="H21" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="H21" s="1" t="s">
-        <v>62</v>
-      </c>
       <c r="I21" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J21" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="J21" s="1" t="s">
+      <c r="K21" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="K21" s="1" t="s">
-        <v>16</v>
-      </c>
       <c r="M21" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="N21" s="2">
         <v>0</v>
@@ -2170,7 +2173,7 @@
         <v>14</v>
       </c>
       <c r="R21" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="S21" s="2">
         <v>0</v>
@@ -2185,13 +2188,13 @@
         <v>2958</v>
       </c>
       <c r="W21" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="X21" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="X21" s="2" t="s">
-        <v>62</v>
-      </c>
       <c r="Y21" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="22" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2202,7 +2205,7 @@
         <v>15</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D22" s="1">
         <v>362</v>
@@ -2214,22 +2217,22 @@
         <v>2280</v>
       </c>
       <c r="G22" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="H22" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="H22" s="1" t="s">
-        <v>64</v>
-      </c>
       <c r="I22" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J22" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="J22" s="1" t="s">
+      <c r="K22" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="K22" s="1" t="s">
-        <v>16</v>
-      </c>
       <c r="M22" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="N22" s="2">
         <v>0</v>
@@ -2240,7 +2243,7 @@
         <v>15</v>
       </c>
       <c r="R22" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="S22" s="2">
         <v>0</v>
@@ -2255,13 +2258,13 @@
         <v>2280</v>
       </c>
       <c r="W22" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="X22" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="X22" s="2" t="s">
-        <v>64</v>
-      </c>
       <c r="Y22" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="23" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2272,7 +2275,7 @@
         <v>16</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D23" s="1">
         <v>187</v>
@@ -2284,22 +2287,22 @@
         <v>2994</v>
       </c>
       <c r="G23" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="H23" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="H23" s="1" t="s">
-        <v>66</v>
-      </c>
       <c r="I23" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L23" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M23" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="N23" s="2">
         <v>0</v>
@@ -2310,7 +2313,7 @@
         <v>16</v>
       </c>
       <c r="R23" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="S23" s="2">
         <v>0</v>
@@ -2325,13 +2328,13 @@
         <v>2994</v>
       </c>
       <c r="W23" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="X23" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="X23" s="2" t="s">
-        <v>66</v>
-      </c>
       <c r="Y23" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="24" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
@@ -2342,7 +2345,7 @@
         <v>19</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D24" s="1">
         <v>94</v>
@@ -2354,25 +2357,25 @@
         <v>762</v>
       </c>
       <c r="G24" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="H24" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="H24" s="1" t="s">
+      <c r="I24" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J24" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K24" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="I24" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="J24" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="K24" s="1" t="s">
-        <v>69</v>
-      </c>
       <c r="L24" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M24" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="N24" s="2">
         <v>0</v>
@@ -2383,7 +2386,7 @@
         <v>19</v>
       </c>
       <c r="R24" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="S24" s="2">
         <v>0</v>
@@ -2398,13 +2401,13 @@
         <v>762</v>
       </c>
       <c r="W24" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="X24" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="X24" s="2" t="s">
-        <v>68</v>
-      </c>
       <c r="Y24" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="25" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
@@ -2412,25 +2415,25 @@
         <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="26" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
@@ -2441,7 +2444,7 @@
         <v>4</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D26" s="1">
         <v>227</v>
@@ -2453,10 +2456,10 @@
         <v>1818</v>
       </c>
       <c r="G26" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="H26" s="1" t="s">
         <v>71</v>
-      </c>
-      <c r="H26" s="1" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="27" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
@@ -2467,7 +2470,7 @@
         <v>4</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D27" s="1">
         <v>234</v>
@@ -2479,10 +2482,10 @@
         <v>1864</v>
       </c>
       <c r="G27" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="H27" s="1" t="s">
         <v>73</v>
-      </c>
-      <c r="H27" s="1" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="28" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
@@ -2493,7 +2496,7 @@
         <v>9</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D28" s="1">
         <v>211</v>
@@ -2505,10 +2508,10 @@
         <v>1460</v>
       </c>
       <c r="G28" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="H28" s="1" t="s">
         <v>75</v>
-      </c>
-      <c r="H28" s="1" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="29" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
@@ -2519,7 +2522,7 @@
         <v>10</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D29" s="1">
         <v>141</v>
@@ -2531,10 +2534,10 @@
         <v>1096</v>
       </c>
       <c r="G29" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="H29" s="1" t="s">
         <v>77</v>
-      </c>
-      <c r="H29" s="1" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="30" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
@@ -2545,7 +2548,7 @@
         <v>11</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D30" s="1">
         <v>193</v>
@@ -2557,10 +2560,10 @@
         <v>2076</v>
       </c>
       <c r="G30" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="H30" s="1" t="s">
         <v>79</v>
-      </c>
-      <c r="H30" s="1" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="31" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
@@ -2571,7 +2574,7 @@
         <v>12</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D31" s="1">
         <v>313</v>
@@ -2583,10 +2586,10 @@
         <v>3382</v>
       </c>
       <c r="G31" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="H31" s="1" t="s">
         <v>81</v>
-      </c>
-      <c r="H31" s="1" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="32" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
@@ -2597,7 +2600,7 @@
         <v>13</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D32" s="1">
         <v>353</v>
@@ -2609,10 +2612,10 @@
         <v>2134</v>
       </c>
       <c r="G32" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="H32" s="1" t="s">
         <v>83</v>
-      </c>
-      <c r="H32" s="1" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="33" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
@@ -2623,7 +2626,7 @@
         <v>17</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D33" s="1">
         <v>438</v>
@@ -2635,10 +2638,10 @@
         <v>3846</v>
       </c>
       <c r="G33" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="H33" s="1" t="s">
         <v>85</v>
-      </c>
-      <c r="H33" s="1" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
@@ -2649,7 +2652,7 @@
         <v>18</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D34" s="1">
         <v>5</v>
@@ -2661,10 +2664,10 @@
         <v>76</v>
       </c>
       <c r="G34" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="H34" s="1" t="s">
         <v>87</v>
-      </c>
-      <c r="H34" s="1" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
@@ -2675,7 +2678,7 @@
         <v>18</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D35" s="1">
         <v>35</v>
@@ -2687,10 +2690,10 @@
         <v>190</v>
       </c>
       <c r="G35" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="H35" s="1" t="s">
         <v>89</v>
-      </c>
-      <c r="H35" s="1" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
@@ -2701,7 +2704,7 @@
         <v>18</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D36" s="1">
         <v>167</v>
@@ -2713,10 +2716,10 @@
         <v>720</v>
       </c>
       <c r="G36" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="H36" s="1" t="s">
         <v>91</v>
-      </c>
-      <c r="H36" s="1" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="37" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
@@ -2727,7 +2730,7 @@
         <v>20</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D37" s="1">
         <v>494</v>
@@ -2739,10 +2742,10 @@
         <v>3336</v>
       </c>
       <c r="G37" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="H37" s="1" t="s">
         <v>93</v>
-      </c>
-      <c r="H37" s="1" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="38" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
@@ -2753,7 +2756,7 @@
         <v>1</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D38" s="1">
         <v>364</v>
@@ -2765,10 +2768,10 @@
         <v>3334</v>
       </c>
       <c r="G38" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="H38" s="1" t="s">
         <v>95</v>
-      </c>
-      <c r="H38" s="1" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="39" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
@@ -2779,7 +2782,7 @@
         <v>4</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D39" s="1">
         <v>376</v>
@@ -2791,10 +2794,10 @@
         <v>3156</v>
       </c>
       <c r="G39" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="H39" s="1" t="s">
         <v>97</v>
-      </c>
-      <c r="H39" s="1" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="40" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
@@ -2805,7 +2808,7 @@
         <v>6</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D40" s="1">
         <v>108</v>
@@ -2817,10 +2820,10 @@
         <v>1998</v>
       </c>
       <c r="G40" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="H40" s="1" t="s">
         <v>99</v>
-      </c>
-      <c r="H40" s="1" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="41" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
@@ -2831,7 +2834,7 @@
         <v>6</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D41" s="1">
         <v>329</v>
@@ -2843,10 +2846,10 @@
         <v>5008</v>
       </c>
       <c r="G41" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="H41" s="1" t="s">
         <v>101</v>
-      </c>
-      <c r="H41" s="1" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="42" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
@@ -2857,7 +2860,7 @@
         <v>10</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D42" s="1">
         <v>86</v>
@@ -2869,10 +2872,10 @@
         <v>1110</v>
       </c>
       <c r="G42" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="H42" s="1" t="s">
         <v>103</v>
-      </c>
-      <c r="H42" s="1" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="43" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
@@ -2883,7 +2886,7 @@
         <v>10</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D43" s="1">
         <v>810</v>
@@ -2895,10 +2898,10 @@
         <v>6510</v>
       </c>
       <c r="G43" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="H43" s="1" t="s">
         <v>105</v>
-      </c>
-      <c r="H43" s="1" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="44" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
@@ -2909,7 +2912,7 @@
         <v>13</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D44" s="1">
         <v>151</v>
@@ -2921,10 +2924,10 @@
         <v>694</v>
       </c>
       <c r="G44" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="H44" s="1" t="s">
         <v>107</v>
-      </c>
-      <c r="H44" s="1" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="45" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
@@ -2935,7 +2938,7 @@
         <v>13</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D45" s="1">
         <v>484</v>
@@ -2947,10 +2950,10 @@
         <v>1822</v>
       </c>
       <c r="G45" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="H45" s="1" t="s">
         <v>109</v>
-      </c>
-      <c r="H45" s="1" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="46" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
@@ -2961,7 +2964,7 @@
         <v>14</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D46" s="1">
         <v>378</v>
@@ -2973,10 +2976,10 @@
         <v>3068</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
